--- a/02_要求分析/レビュー議事録(要求分析).xlsx
+++ b/02_要求分析/レビュー議事録(要求分析).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F2812-D141-4F6A-A2BA-C717D0EACC2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{914F2812-D141-4F6A-A2BA-C717D0EACC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AC50C6D-CE69-4EEB-AD17-3CB2798BB5A6}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="855" windowWidth="9330" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="855" windowWidth="9330" windowHeight="10665" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,12 +13,14 @@
     <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,58 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応期限</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言者</t>
-    <rPh sb="0" eb="3">
-      <t>ハツゲンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答または対策</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘</t>
-  </si>
-  <si>
-    <t>対象成果物</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイカブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -96,6 +47,105 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショカイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_ゆでたまご要求分析合否判定レビュー</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゴウヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/10
+14:10－14:25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReviewRoom A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者(敬称略)</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上、江口、近藤、島袋、中島、宮下</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エグチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シマブクロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナカジマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミヤシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューア(敬称略)</t>
+    <rPh sb="6" eb="9">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書記</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>開催目的</t>
     <rPh sb="0" eb="2">
       <t>カイサイ</t>
@@ -106,461 +156,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出席者</t>
-    <rPh sb="0" eb="3">
-      <t>シュッセキシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー対象</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘件数</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化分析</t>
-  </si>
-  <si>
-    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス「2.2発注する」の粒度を見直す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田口</t>
-    <rPh sb="0" eb="2">
-      <t>タグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中、山田、藤田、田口</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田、藤田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総指摘件数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.1 補充発注する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.2 検収する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書記</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言内容</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復1 第2回レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショカイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Florida</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012/05/21 (月)
-13:00-13:30</t>
-    <rPh sb="12" eb="13">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問</t>
-  </si>
-  <si>
-    <t>中島</t>
-    <rPh sb="0" eb="2">
-      <t>ナカジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言者(敬称略)</t>
-    <rPh sb="0" eb="3">
-      <t>ハツゲンシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューア(敬称略)</t>
-    <rPh sb="6" eb="9">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席者(敬称略)</t>
-    <rPh sb="0" eb="3">
-      <t>シュッセキシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近藤、宮下、島袋、江口</t>
-    <rPh sb="0" eb="2">
-      <t>コンドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミヤシタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シマブクロ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテスト仕様書</t>
-    <rPh sb="7" eb="10">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非機能要求一覧</t>
-    <rPh sb="0" eb="7">
-      <t>ヒキノウヨウキュウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース図</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04_ゆでたまご要求分析合否判定レビュー</t>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゴウヒ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要求分析</t>
-  </si>
-  <si>
-    <t>2020/6/10
-14:10－14:25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース記述</t>
-    <rPh sb="6" eb="8">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ReviewRoom A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上、江口、近藤、島袋、中島、宮下</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エグチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コンドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シマブクロ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナカジマ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ミヤシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者モードで釣銭と商品の在庫が確認できてほしい</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツリセン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫切れの表記が補充後になくなっているかのシステムテストを加える</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品在庫の上限は補充はどれくらい？</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫の上限は30にしました。</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫が0になった商品の下に在庫切れを出力して、
-ボタンを押せないようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者モードで釣銭と商品の在庫が目視できるようにする。</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツリセン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテストに追加します。</t>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入者も在庫切れをボタンを押す前から知りたい</t>
-    <rPh sb="0" eb="3">
-      <t>コウニュウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ギ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユースケース図、ユースケース記述、非機能要求一覧、システムテスト仕様書
@@ -595,12 +191,394 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レビュー対象</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘件数</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+    <rPh sb="0" eb="7">
+      <t>ヒキノウヨウキュウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤、宮下、島袋、江口</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミヤシタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シマブクロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総指摘件数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象成果物</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言内容</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言者(敬称略)</t>
+    <rPh sb="0" eb="3">
+      <t>ハツゲンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答または対策</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応期限</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+  </si>
+  <si>
+    <t>商品在庫の上限値の記載がなかったのですが、決まっているのでしょうか</t>
+  </si>
+  <si>
+    <t>在庫の上限に関しては、レビュー後グループで検討します。</t>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>購入者も在庫切れをボタンを押す前から知りたい</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫が0になった商品の下に在庫切れを出力して、
+ボタンを押せないようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者モードで釣銭と商品の在庫が確認できてほしい</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツリセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者モードで釣銭と商品の在庫が目視できるようにする。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツリセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫切れの表記が補充後になくなっているかのシステムテストを加える</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテストに追加します。</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復1 第2回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012/05/21 (月)
+13:00-13:30</t>
+    <rPh sb="12" eb="13">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Florida</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中、山田、藤田、田口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田、藤田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田口</t>
+    <rPh sb="0" eb="2">
+      <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造化分析</t>
+  </si>
+  <si>
+    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.1 補充発注する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.2 検収する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言者</t>
+    <rPh sb="0" eb="3">
+      <t>ハツゲンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス「2.2発注する」の粒度を見直す</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -940,63 +918,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,27 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1480,211 +1458,200 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="7" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16">
+    <row r="13" spans="1:4">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="18">
+    <row r="14" spans="1:4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1695,6 +1662,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1714,182 +1692,182 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="19">
+        <v>34</v>
+      </c>
+      <c r="G2" s="17">
         <v>43992</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="19">
+        <v>37</v>
+      </c>
+      <c r="G3" s="17">
         <v>43994</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="19">
+        <v>39</v>
+      </c>
+      <c r="G4" s="17">
         <v>43994</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="19">
+        <v>41</v>
+      </c>
+      <c r="G5" s="17">
         <v>43992</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1898,7 +1876,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1907,7 +1885,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1916,7 +1894,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1925,7 +1903,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1934,7 +1912,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1943,7 +1921,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1952,7 +1930,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1961,7 +1939,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1970,7 +1948,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2002,208 +1980,196 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2213,6 +2179,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2236,63 +2214,63 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="10">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2301,7 +2279,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2310,7 +2288,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2319,7 +2297,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2328,7 +2306,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2337,7 +2315,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2346,7 +2324,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2355,7 +2333,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2364,7 +2342,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2373,7 +2351,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2382,7 +2360,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2391,7 +2369,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2400,7 +2378,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2409,7 +2387,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2418,7 +2396,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2427,7 +2405,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2436,7 +2414,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2445,7 +2423,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2454,7 +2432,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2463,7 +2441,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2472,7 +2450,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2497,6 +2475,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2680,59 +2673,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E1E9F5-32D4-4E49-AB9D-83E66B6D7A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E1E9F5-32D4-4E49-AB9D-83E66B6D7A5A}"/>
 </file>